--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -22,7 +22,7 @@
     <t>translation</t>
   </si>
   <si>
-    <t>- No, I can't, I have that job interview. - Oh, right.</t>
+    <t>How could you just go away like that without even saying good-bye,</t>
   </si>
 </sst>
 </file>
